--- a/docs/data/severity_scenario.xlsx
+++ b/docs/data/severity_scenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Doutorado\Publicações\Papers\paper_tpp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2575009-62B8-4AF5-9617-35DA25C86589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1448C767-B5B6-4FCB-A046-0BA89B1E46F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="13">
   <si>
     <t>resolution</t>
   </si>
@@ -57,618 +57,6 @@
   </si>
   <si>
     <t>1367x2160</t>
-  </si>
-  <si>
-    <t>1367x2161</t>
-  </si>
-  <si>
-    <t>1367x2162</t>
-  </si>
-  <si>
-    <t>1367x2163</t>
-  </si>
-  <si>
-    <t>1367x2164</t>
-  </si>
-  <si>
-    <t>1367x2165</t>
-  </si>
-  <si>
-    <t>1367x2166</t>
-  </si>
-  <si>
-    <t>1367x2167</t>
-  </si>
-  <si>
-    <t>1367x2168</t>
-  </si>
-  <si>
-    <t>1367x2169</t>
-  </si>
-  <si>
-    <t>1367x2170</t>
-  </si>
-  <si>
-    <t>1367x2171</t>
-  </si>
-  <si>
-    <t>1367x2172</t>
-  </si>
-  <si>
-    <t>1367x2173</t>
-  </si>
-  <si>
-    <t>1367x2174</t>
-  </si>
-  <si>
-    <t>1367x2175</t>
-  </si>
-  <si>
-    <t>1367x2176</t>
-  </si>
-  <si>
-    <t>1367x2177</t>
-  </si>
-  <si>
-    <t>1367x2178</t>
-  </si>
-  <si>
-    <t>1367x2179</t>
-  </si>
-  <si>
-    <t>1367x2180</t>
-  </si>
-  <si>
-    <t>1367x2181</t>
-  </si>
-  <si>
-    <t>1367x2182</t>
-  </si>
-  <si>
-    <t>1367x2183</t>
-  </si>
-  <si>
-    <t>1367x2184</t>
-  </si>
-  <si>
-    <t>1367x2185</t>
-  </si>
-  <si>
-    <t>1367x2186</t>
-  </si>
-  <si>
-    <t>1367x2187</t>
-  </si>
-  <si>
-    <t>1367x2188</t>
-  </si>
-  <si>
-    <t>1367x2189</t>
-  </si>
-  <si>
-    <t>1367x2190</t>
-  </si>
-  <si>
-    <t>1367x2191</t>
-  </si>
-  <si>
-    <t>1367x2192</t>
-  </si>
-  <si>
-    <t>1367x2193</t>
-  </si>
-  <si>
-    <t>1367x2194</t>
-  </si>
-  <si>
-    <t>1367x2195</t>
-  </si>
-  <si>
-    <t>1367x2196</t>
-  </si>
-  <si>
-    <t>1367x2197</t>
-  </si>
-  <si>
-    <t>1367x2198</t>
-  </si>
-  <si>
-    <t>1367x2199</t>
-  </si>
-  <si>
-    <t>1367x2200</t>
-  </si>
-  <si>
-    <t>1367x2201</t>
-  </si>
-  <si>
-    <t>1367x2202</t>
-  </si>
-  <si>
-    <t>1367x2203</t>
-  </si>
-  <si>
-    <t>1367x2204</t>
-  </si>
-  <si>
-    <t>1367x2205</t>
-  </si>
-  <si>
-    <t>1367x2206</t>
-  </si>
-  <si>
-    <t>1367x2207</t>
-  </si>
-  <si>
-    <t>1367x2208</t>
-  </si>
-  <si>
-    <t>1367x2209</t>
-  </si>
-  <si>
-    <t>1367x2210</t>
-  </si>
-  <si>
-    <t>1367x2211</t>
-  </si>
-  <si>
-    <t>1367x2212</t>
-  </si>
-  <si>
-    <t>1367x2213</t>
-  </si>
-  <si>
-    <t>1367x2214</t>
-  </si>
-  <si>
-    <t>1367x2215</t>
-  </si>
-  <si>
-    <t>1367x2216</t>
-  </si>
-  <si>
-    <t>1367x2217</t>
-  </si>
-  <si>
-    <t>1367x2218</t>
-  </si>
-  <si>
-    <t>1367x2219</t>
-  </si>
-  <si>
-    <t>1367x2220</t>
-  </si>
-  <si>
-    <t>1367x2221</t>
-  </si>
-  <si>
-    <t>1367x2222</t>
-  </si>
-  <si>
-    <t>1367x2223</t>
-  </si>
-  <si>
-    <t>1367x2224</t>
-  </si>
-  <si>
-    <t>1367x2225</t>
-  </si>
-  <si>
-    <t>1367x2226</t>
-  </si>
-  <si>
-    <t>1367x2227</t>
-  </si>
-  <si>
-    <t>1367x2228</t>
-  </si>
-  <si>
-    <t>1367x2229</t>
-  </si>
-  <si>
-    <t>1367x2230</t>
-  </si>
-  <si>
-    <t>1367x2231</t>
-  </si>
-  <si>
-    <t>1367x2232</t>
-  </si>
-  <si>
-    <t>1367x2233</t>
-  </si>
-  <si>
-    <t>1367x2234</t>
-  </si>
-  <si>
-    <t>1367x2235</t>
-  </si>
-  <si>
-    <t>1367x2236</t>
-  </si>
-  <si>
-    <t>1367x2237</t>
-  </si>
-  <si>
-    <t>1367x2238</t>
-  </si>
-  <si>
-    <t>1367x2239</t>
-  </si>
-  <si>
-    <t>1367x2240</t>
-  </si>
-  <si>
-    <t>1367x2241</t>
-  </si>
-  <si>
-    <t>1367x2242</t>
-  </si>
-  <si>
-    <t>1367x2243</t>
-  </si>
-  <si>
-    <t>1367x2244</t>
-  </si>
-  <si>
-    <t>1367x2245</t>
-  </si>
-  <si>
-    <t>1367x2246</t>
-  </si>
-  <si>
-    <t>1367x2247</t>
-  </si>
-  <si>
-    <t>1367x2248</t>
-  </si>
-  <si>
-    <t>1367x2249</t>
-  </si>
-  <si>
-    <t>1367x2250</t>
-  </si>
-  <si>
-    <t>1367x2251</t>
-  </si>
-  <si>
-    <t>1367x2252</t>
-  </si>
-  <si>
-    <t>1367x2253</t>
-  </si>
-  <si>
-    <t>1367x2254</t>
-  </si>
-  <si>
-    <t>1367x2255</t>
-  </si>
-  <si>
-    <t>1367x2256</t>
-  </si>
-  <si>
-    <t>1367x2257</t>
-  </si>
-  <si>
-    <t>1367x2258</t>
-  </si>
-  <si>
-    <t>1367x2259</t>
-  </si>
-  <si>
-    <t>1367x2260</t>
-  </si>
-  <si>
-    <t>1367x2261</t>
-  </si>
-  <si>
-    <t>1367x2262</t>
-  </si>
-  <si>
-    <t>1367x2263</t>
-  </si>
-  <si>
-    <t>1367x2264</t>
-  </si>
-  <si>
-    <t>1367x2265</t>
-  </si>
-  <si>
-    <t>1367x2266</t>
-  </si>
-  <si>
-    <t>1367x2267</t>
-  </si>
-  <si>
-    <t>1367x2268</t>
-  </si>
-  <si>
-    <t>1367x2269</t>
-  </si>
-  <si>
-    <t>1367x2270</t>
-  </si>
-  <si>
-    <t>1367x2271</t>
-  </si>
-  <si>
-    <t>1367x2272</t>
-  </si>
-  <si>
-    <t>1367x2273</t>
-  </si>
-  <si>
-    <t>1367x2274</t>
-  </si>
-  <si>
-    <t>1367x2275</t>
-  </si>
-  <si>
-    <t>1367x2276</t>
-  </si>
-  <si>
-    <t>1367x2277</t>
-  </si>
-  <si>
-    <t>1367x2278</t>
-  </si>
-  <si>
-    <t>1367x2279</t>
-  </si>
-  <si>
-    <t>1367x2280</t>
-  </si>
-  <si>
-    <t>1367x2281</t>
-  </si>
-  <si>
-    <t>1367x2282</t>
-  </si>
-  <si>
-    <t>1367x2283</t>
-  </si>
-  <si>
-    <t>1367x2284</t>
-  </si>
-  <si>
-    <t>1367x2285</t>
-  </si>
-  <si>
-    <t>1367x2286</t>
-  </si>
-  <si>
-    <t>1367x2287</t>
-  </si>
-  <si>
-    <t>1367x2288</t>
-  </si>
-  <si>
-    <t>1367x2289</t>
-  </si>
-  <si>
-    <t>1367x2290</t>
-  </si>
-  <si>
-    <t>1367x2291</t>
-  </si>
-  <si>
-    <t>1367x2292</t>
-  </si>
-  <si>
-    <t>1367x2293</t>
-  </si>
-  <si>
-    <t>1367x2294</t>
-  </si>
-  <si>
-    <t>1367x2295</t>
-  </si>
-  <si>
-    <t>1367x2296</t>
-  </si>
-  <si>
-    <t>1367x2297</t>
-  </si>
-  <si>
-    <t>1367x2298</t>
-  </si>
-  <si>
-    <t>1367x2299</t>
-  </si>
-  <si>
-    <t>1367x2300</t>
-  </si>
-  <si>
-    <t>1367x2301</t>
-  </si>
-  <si>
-    <t>1367x2302</t>
-  </si>
-  <si>
-    <t>1367x2303</t>
-  </si>
-  <si>
-    <t>1367x2304</t>
-  </si>
-  <si>
-    <t>1367x2305</t>
-  </si>
-  <si>
-    <t>1367x2306</t>
-  </si>
-  <si>
-    <t>1367x2307</t>
-  </si>
-  <si>
-    <t>1367x2308</t>
-  </si>
-  <si>
-    <t>1367x2309</t>
-  </si>
-  <si>
-    <t>1367x2310</t>
-  </si>
-  <si>
-    <t>1367x2311</t>
-  </si>
-  <si>
-    <t>1367x2312</t>
-  </si>
-  <si>
-    <t>1367x2313</t>
-  </si>
-  <si>
-    <t>1367x2314</t>
-  </si>
-  <si>
-    <t>1367x2315</t>
-  </si>
-  <si>
-    <t>1367x2316</t>
-  </si>
-  <si>
-    <t>1367x2317</t>
-  </si>
-  <si>
-    <t>1367x2318</t>
-  </si>
-  <si>
-    <t>1367x2319</t>
-  </si>
-  <si>
-    <t>1367x2320</t>
-  </si>
-  <si>
-    <t>1367x2321</t>
-  </si>
-  <si>
-    <t>1367x2322</t>
-  </si>
-  <si>
-    <t>1367x2323</t>
-  </si>
-  <si>
-    <t>1367x2324</t>
-  </si>
-  <si>
-    <t>1367x2325</t>
-  </si>
-  <si>
-    <t>1367x2326</t>
-  </si>
-  <si>
-    <t>1367x2327</t>
-  </si>
-  <si>
-    <t>1367x2328</t>
-  </si>
-  <si>
-    <t>1367x2329</t>
-  </si>
-  <si>
-    <t>1367x2330</t>
-  </si>
-  <si>
-    <t>1367x2331</t>
-  </si>
-  <si>
-    <t>1367x2332</t>
-  </si>
-  <si>
-    <t>1367x2333</t>
-  </si>
-  <si>
-    <t>1367x2334</t>
-  </si>
-  <si>
-    <t>1367x2335</t>
-  </si>
-  <si>
-    <t>1367x2336</t>
-  </si>
-  <si>
-    <t>1367x2337</t>
-  </si>
-  <si>
-    <t>1367x2338</t>
-  </si>
-  <si>
-    <t>1367x2339</t>
-  </si>
-  <si>
-    <t>1367x2340</t>
-  </si>
-  <si>
-    <t>1367x2341</t>
-  </si>
-  <si>
-    <t>1367x2342</t>
-  </si>
-  <si>
-    <t>1367x2343</t>
-  </si>
-  <si>
-    <t>1367x2344</t>
-  </si>
-  <si>
-    <t>1367x2345</t>
-  </si>
-  <si>
-    <t>1367x2346</t>
-  </si>
-  <si>
-    <t>1367x2347</t>
-  </si>
-  <si>
-    <t>1367x2348</t>
-  </si>
-  <si>
-    <t>1367x2349</t>
-  </si>
-  <si>
-    <t>1367x2350</t>
-  </si>
-  <si>
-    <t>1367x2351</t>
-  </si>
-  <si>
-    <t>1367x2352</t>
-  </si>
-  <si>
-    <t>1367x2353</t>
-  </si>
-  <si>
-    <t>1367x2354</t>
-  </si>
-  <si>
-    <t>1367x2355</t>
-  </si>
-  <si>
-    <t>1367x2356</t>
-  </si>
-  <si>
-    <t>1367x2357</t>
-  </si>
-  <si>
-    <t>1367x2358</t>
-  </si>
-  <si>
-    <t>1367x2359</t>
-  </si>
-  <si>
-    <t>1367x2360</t>
-  </si>
-  <si>
-    <t>1367x2361</t>
-  </si>
-  <si>
-    <t>1367x2362</t>
-  </si>
-  <si>
-    <t>1367x2363</t>
-  </si>
-  <si>
-    <t>1367x2364</t>
   </si>
   <si>
     <t>healthy</t>
@@ -1016,9 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33690E06-8C3E-4516-AC9E-C01517EBAB0C}">
   <dimension ref="A1:F1026"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A999" workbookViewId="0">
-      <selection activeCell="F1011" sqref="F1011"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18293,7 +17679,7 @@
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B823">
         <v>3</v>
@@ -18314,7 +17700,7 @@
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B824">
         <v>3</v>
@@ -18335,7 +17721,7 @@
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B825">
         <v>3</v>
@@ -18356,7 +17742,7 @@
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B826">
         <v>3</v>
@@ -18377,7 +17763,7 @@
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B827">
         <v>3</v>
@@ -18398,7 +17784,7 @@
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B828">
         <v>3</v>
@@ -18419,7 +17805,7 @@
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B829">
         <v>3</v>
@@ -18440,7 +17826,7 @@
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B830">
         <v>3</v>
@@ -18461,7 +17847,7 @@
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B831">
         <v>3</v>
@@ -18482,7 +17868,7 @@
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B832">
         <v>3</v>
@@ -18503,7 +17889,7 @@
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B833">
         <v>3</v>
@@ -18524,7 +17910,7 @@
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B834">
         <v>3</v>
@@ -18545,7 +17931,7 @@
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B835">
         <v>3</v>
@@ -18566,7 +17952,7 @@
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B836">
         <v>3</v>
@@ -18587,7 +17973,7 @@
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B837">
         <v>3</v>
@@ -18608,7 +17994,7 @@
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B838">
         <v>3</v>
@@ -18629,7 +18015,7 @@
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B839">
         <v>3</v>
@@ -18650,7 +18036,7 @@
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B840">
         <v>3</v>
@@ -18671,7 +18057,7 @@
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B841">
         <v>3</v>
@@ -18692,7 +18078,7 @@
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B842">
         <v>3</v>
@@ -18713,7 +18099,7 @@
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B843">
         <v>3</v>
@@ -18734,7 +18120,7 @@
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B844">
         <v>3</v>
@@ -18755,7 +18141,7 @@
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B845">
         <v>3</v>
@@ -18776,7 +18162,7 @@
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B846">
         <v>3</v>
@@ -18797,7 +18183,7 @@
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B847">
         <v>3</v>
@@ -18818,7 +18204,7 @@
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B848">
         <v>3</v>
@@ -18839,7 +18225,7 @@
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B849">
         <v>3</v>
@@ -18860,7 +18246,7 @@
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B850">
         <v>3</v>
@@ -18881,7 +18267,7 @@
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B851">
         <v>3</v>
@@ -18902,7 +18288,7 @@
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B852">
         <v>3</v>
@@ -18923,7 +18309,7 @@
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B853">
         <v>3</v>
@@ -18944,7 +18330,7 @@
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B854">
         <v>3</v>
@@ -18965,7 +18351,7 @@
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B855">
         <v>3</v>
@@ -18986,7 +18372,7 @@
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B856">
         <v>3</v>
@@ -19007,7 +18393,7 @@
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B857">
         <v>3</v>
@@ -19028,7 +18414,7 @@
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B858">
         <v>3</v>
@@ -19049,7 +18435,7 @@
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B859">
         <v>3</v>
@@ -19070,7 +18456,7 @@
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B860">
         <v>3</v>
@@ -19091,7 +18477,7 @@
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B861">
         <v>3</v>
@@ -19112,7 +18498,7 @@
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B862">
         <v>3</v>
@@ -19133,7 +18519,7 @@
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B863">
         <v>3</v>
@@ -19154,7 +18540,7 @@
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B864">
         <v>3</v>
@@ -19175,7 +18561,7 @@
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B865">
         <v>3</v>
@@ -19196,7 +18582,7 @@
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B866">
         <v>3</v>
@@ -19217,7 +18603,7 @@
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B867">
         <v>3</v>
@@ -19238,7 +18624,7 @@
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B868">
         <v>3</v>
@@ -19259,7 +18645,7 @@
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B869">
         <v>3</v>
@@ -19280,7 +18666,7 @@
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B870">
         <v>3</v>
@@ -19301,7 +18687,7 @@
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B871">
         <v>3</v>
@@ -19322,7 +18708,7 @@
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B872">
         <v>3</v>
@@ -19343,7 +18729,7 @@
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B873">
         <v>3</v>
@@ -19364,7 +18750,7 @@
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B874">
         <v>3</v>
@@ -19385,7 +18771,7 @@
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B875">
         <v>3</v>
@@ -19406,7 +18792,7 @@
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B876">
         <v>3</v>
@@ -19427,7 +18813,7 @@
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B877">
         <v>3</v>
@@ -19448,7 +18834,7 @@
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="B878">
         <v>3</v>
@@ -19469,7 +18855,7 @@
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B879">
         <v>3</v>
@@ -19490,7 +18876,7 @@
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B880">
         <v>3</v>
@@ -19511,7 +18897,7 @@
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="B881">
         <v>3</v>
@@ -19532,7 +18918,7 @@
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B882">
         <v>3</v>
@@ -19553,7 +18939,7 @@
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B883">
         <v>3</v>
@@ -19574,7 +18960,7 @@
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="B884">
         <v>3</v>
@@ -19595,7 +18981,7 @@
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B885">
         <v>3</v>
@@ -19616,7 +19002,7 @@
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="B886">
         <v>3</v>
@@ -19637,7 +19023,7 @@
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B887">
         <v>3</v>
@@ -19658,7 +19044,7 @@
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B888">
         <v>3</v>
@@ -19679,7 +19065,7 @@
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="B889">
         <v>3</v>
@@ -19700,7 +19086,7 @@
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B890">
         <v>3</v>
@@ -19721,7 +19107,7 @@
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="B891">
         <v>3</v>
@@ -19742,7 +19128,7 @@
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="B892">
         <v>3</v>
@@ -19763,7 +19149,7 @@
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="B893">
         <v>3</v>
@@ -19784,7 +19170,7 @@
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="B894">
         <v>3</v>
@@ -19805,7 +19191,7 @@
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="B895">
         <v>3</v>
@@ -19826,7 +19212,7 @@
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="B896">
         <v>3</v>
@@ -19847,7 +19233,7 @@
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="B897">
         <v>3</v>
@@ -19868,7 +19254,7 @@
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B898">
         <v>3</v>
@@ -19889,7 +19275,7 @@
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B899">
         <v>3</v>
@@ -19910,7 +19296,7 @@
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B900">
         <v>3</v>
@@ -19931,7 +19317,7 @@
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B901">
         <v>3</v>
@@ -19952,7 +19338,7 @@
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="B902">
         <v>3</v>
@@ -19973,7 +19359,7 @@
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B903">
         <v>3</v>
@@ -19994,7 +19380,7 @@
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="B904">
         <v>3</v>
@@ -20015,7 +19401,7 @@
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B905">
         <v>3</v>
@@ -20036,7 +19422,7 @@
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="B906">
         <v>3</v>
@@ -20057,7 +19443,7 @@
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B907">
         <v>3</v>
@@ -20078,7 +19464,7 @@
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="B908">
         <v>3</v>
@@ -20099,7 +19485,7 @@
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="B909">
         <v>3</v>
@@ -20120,7 +19506,7 @@
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="B910">
         <v>3</v>
@@ -20141,7 +19527,7 @@
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="B911">
         <v>3</v>
@@ -20162,7 +19548,7 @@
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B912">
         <v>3</v>
@@ -20183,7 +19569,7 @@
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="B913">
         <v>3</v>
@@ -20204,7 +19590,7 @@
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="B914">
         <v>3</v>
@@ -20225,7 +19611,7 @@
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="B915">
         <v>3</v>
@@ -20246,7 +19632,7 @@
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="B916">
         <v>3</v>
@@ -20267,7 +19653,7 @@
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="B917">
         <v>3</v>
@@ -20288,7 +19674,7 @@
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="B918">
         <v>3</v>
@@ -20309,7 +19695,7 @@
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="B919">
         <v>3</v>
@@ -20330,7 +19716,7 @@
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="B920">
         <v>3</v>
@@ -20351,7 +19737,7 @@
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="B921">
         <v>3</v>
@@ -20372,7 +19758,7 @@
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="B922">
         <v>3</v>
@@ -20393,7 +19779,7 @@
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="B923">
         <v>3</v>
@@ -20414,7 +19800,7 @@
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="B924">
         <v>3</v>
@@ -20435,7 +19821,7 @@
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="B925">
         <v>3</v>
@@ -20456,7 +19842,7 @@
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="B926">
         <v>3</v>
@@ -20477,7 +19863,7 @@
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="B927">
         <v>3</v>
@@ -20498,7 +19884,7 @@
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="B928">
         <v>3</v>
@@ -20519,7 +19905,7 @@
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="B929">
         <v>3</v>
@@ -20540,7 +19926,7 @@
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="B930">
         <v>3</v>
@@ -20561,7 +19947,7 @@
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B931">
         <v>3</v>
@@ -20582,7 +19968,7 @@
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="B932">
         <v>3</v>
@@ -20603,7 +19989,7 @@
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="B933">
         <v>3</v>
@@ -20624,7 +20010,7 @@
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="B934">
         <v>3</v>
@@ -20645,7 +20031,7 @@
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="B935">
         <v>3</v>
@@ -20666,7 +20052,7 @@
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="B936">
         <v>3</v>
@@ -20687,7 +20073,7 @@
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B937">
         <v>3</v>
@@ -20708,7 +20094,7 @@
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="B938">
         <v>3</v>
@@ -20729,7 +20115,7 @@
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="B939">
         <v>3</v>
@@ -20750,7 +20136,7 @@
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="B940">
         <v>3</v>
@@ -20771,7 +20157,7 @@
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="B941">
         <v>3</v>
@@ -20792,7 +20178,7 @@
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B942">
         <v>3</v>
@@ -20813,7 +20199,7 @@
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="B943">
         <v>3</v>
@@ -20834,7 +20220,7 @@
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="B944">
         <v>3</v>
@@ -20855,7 +20241,7 @@
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="B945">
         <v>3</v>
@@ -20876,7 +20262,7 @@
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="B946">
         <v>3</v>
@@ -20897,7 +20283,7 @@
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="B947">
         <v>3</v>
@@ -20918,7 +20304,7 @@
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="B948">
         <v>3</v>
@@ -20939,7 +20325,7 @@
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="B949">
         <v>3</v>
@@ -20960,7 +20346,7 @@
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="B950">
         <v>3</v>
@@ -20981,7 +20367,7 @@
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="B951">
         <v>3</v>
@@ -21002,7 +20388,7 @@
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="B952">
         <v>3</v>
@@ -21023,7 +20409,7 @@
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="B953">
         <v>3</v>
@@ -21044,7 +20430,7 @@
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="B954">
         <v>3</v>
@@ -21065,7 +20451,7 @@
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="B955">
         <v>3</v>
@@ -21086,7 +20472,7 @@
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="B956">
         <v>3</v>
@@ -21107,7 +20493,7 @@
     </row>
     <row r="957" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="B957">
         <v>3</v>
@@ -21128,7 +20514,7 @@
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="B958">
         <v>3</v>
@@ -21149,7 +20535,7 @@
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="B959">
         <v>3</v>
@@ -21170,7 +20556,7 @@
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="B960">
         <v>3</v>
@@ -21191,7 +20577,7 @@
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="B961">
         <v>3</v>
@@ -21212,7 +20598,7 @@
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B962">
         <v>3</v>
@@ -21233,7 +20619,7 @@
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="B963">
         <v>3</v>
@@ -21254,7 +20640,7 @@
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="B964">
         <v>3</v>
@@ -21275,7 +20661,7 @@
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="B965">
         <v>3</v>
@@ -21296,7 +20682,7 @@
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="B966">
         <v>3</v>
@@ -21317,7 +20703,7 @@
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="B967">
         <v>3</v>
@@ -21338,7 +20724,7 @@
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="B968">
         <v>3</v>
@@ -21359,7 +20745,7 @@
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="B969">
         <v>3</v>
@@ -21380,7 +20766,7 @@
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="B970">
         <v>3</v>
@@ -21401,7 +20787,7 @@
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="B971">
         <v>3</v>
@@ -21422,7 +20808,7 @@
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="B972">
         <v>3</v>
@@ -21443,7 +20829,7 @@
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="B973">
         <v>3</v>
@@ -21464,7 +20850,7 @@
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="B974">
         <v>3</v>
@@ -21485,7 +20871,7 @@
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="B975">
         <v>3</v>
@@ -21506,7 +20892,7 @@
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="B976">
         <v>3</v>
@@ -21527,7 +20913,7 @@
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="B977">
         <v>3</v>
@@ -21548,7 +20934,7 @@
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="B978">
         <v>3</v>
@@ -21569,7 +20955,7 @@
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="B979">
         <v>3</v>
@@ -21590,7 +20976,7 @@
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="B980">
         <v>3</v>
@@ -21611,7 +20997,7 @@
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="B981">
         <v>3</v>
@@ -21632,7 +21018,7 @@
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="B982">
         <v>3</v>
@@ -21653,7 +21039,7 @@
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="B983">
         <v>3</v>
@@ -21674,7 +21060,7 @@
     </row>
     <row r="984" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B984">
         <v>3</v>
@@ -21695,7 +21081,7 @@
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="B985">
         <v>3</v>
@@ -21716,7 +21102,7 @@
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="B986">
         <v>3</v>
@@ -21737,7 +21123,7 @@
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="B987">
         <v>3</v>
@@ -21758,7 +21144,7 @@
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="B988">
         <v>3</v>
@@ -21779,7 +21165,7 @@
     </row>
     <row r="989" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="B989">
         <v>3</v>
@@ -21800,7 +21186,7 @@
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="B990">
         <v>3</v>
@@ -21821,7 +21207,7 @@
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="B991">
         <v>3</v>
@@ -21842,7 +21228,7 @@
     </row>
     <row r="992" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="B992">
         <v>3</v>
@@ -21863,7 +21249,7 @@
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="B993">
         <v>3</v>
@@ -21884,7 +21270,7 @@
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="B994">
         <v>3</v>
@@ -21905,7 +21291,7 @@
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="B995">
         <v>3</v>
@@ -21926,7 +21312,7 @@
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="B996">
         <v>3</v>
@@ -21947,7 +21333,7 @@
     </row>
     <row r="997" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="B997">
         <v>3</v>
@@ -21968,7 +21354,7 @@
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="B998">
         <v>3</v>
@@ -21989,7 +21375,7 @@
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="B999">
         <v>3</v>
@@ -22010,7 +21396,7 @@
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="B1000">
         <v>3</v>
@@ -22031,7 +21417,7 @@
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="B1001">
         <v>3</v>
@@ -22052,7 +21438,7 @@
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="B1002">
         <v>3</v>
@@ -22073,7 +21459,7 @@
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="B1003">
         <v>3</v>
@@ -22094,7 +21480,7 @@
     </row>
     <row r="1004" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1004" t="s">
-        <v>192</v>
+        <v>10</v>
       </c>
       <c r="B1004">
         <v>3</v>
@@ -22115,7 +21501,7 @@
     </row>
     <row r="1005" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
-        <v>193</v>
+        <v>10</v>
       </c>
       <c r="B1005">
         <v>3</v>
@@ -22136,7 +21522,7 @@
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="B1006">
         <v>3</v>
@@ -22157,7 +21543,7 @@
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="B1007">
         <v>3</v>
@@ -22178,7 +21564,7 @@
     </row>
     <row r="1008" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1008" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="B1008">
         <v>3</v>
@@ -22199,7 +21585,7 @@
     </row>
     <row r="1009" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1009" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="B1009">
         <v>3</v>
@@ -22220,7 +21606,7 @@
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="B1010">
         <v>3</v>
@@ -22241,7 +21627,7 @@
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="B1011">
         <v>3</v>
@@ -22262,7 +21648,7 @@
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="B1012">
         <v>3</v>
@@ -22283,7 +21669,7 @@
     </row>
     <row r="1013" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="B1013">
         <v>3</v>
@@ -22304,7 +21690,7 @@
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="B1014">
         <v>3</v>
@@ -22325,7 +21711,7 @@
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1015" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="B1015">
         <v>3</v>
@@ -22346,7 +21732,7 @@
     </row>
     <row r="1016" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1016" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="B1016">
         <v>3</v>
@@ -22367,7 +21753,7 @@
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1017" t="s">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="B1017">
         <v>3</v>
@@ -22388,7 +21774,7 @@
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="B1018">
         <v>3</v>
@@ -22409,7 +21795,7 @@
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="B1019">
         <v>3</v>
@@ -22430,7 +21816,7 @@
     </row>
     <row r="1020" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
-        <v>208</v>
+        <v>10</v>
       </c>
       <c r="B1020">
         <v>3</v>
@@ -22451,7 +21837,7 @@
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1021" t="s">
-        <v>209</v>
+        <v>10</v>
       </c>
       <c r="B1021">
         <v>3</v>
@@ -22472,7 +21858,7 @@
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="B1022">
         <v>3</v>
@@ -22493,7 +21879,7 @@
     </row>
     <row r="1023" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="B1023">
         <v>3</v>
@@ -22514,7 +21900,7 @@
     </row>
     <row r="1024" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="B1024">
         <v>3</v>
@@ -22535,7 +21921,7 @@
     </row>
     <row r="1025" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
-        <v>213</v>
+        <v>10</v>
       </c>
       <c r="B1025">
         <v>3</v>
@@ -22556,7 +21942,7 @@
     </row>
     <row r="1026" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1026" t="s">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="B1026">
         <v>3</v>
@@ -22578,6 +21964,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22596,10 +21983,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
